--- a/Input/Medgulf_Nextcare/benefits1.xlsx
+++ b/Input/Medgulf_Nextcare/benefits1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="125">
   <si>
     <t xml:space="preserve">Plan Name</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">companyName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copay</t>
   </si>
   <si>
     <t xml:space="preserve">Plan 1</t>
@@ -223,7 +226,7 @@
     <t xml:space="preserve">Covered with restirctions</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 15,000 with 15% co-pay / Diagnostics covered in full with NIL co-pay
+    <t xml:space="preserve">Medicines covered up to AED 15,000 with $ co-pay / Diagnostics covered in full with NIL co-pay
 Consultations covered with AED 50 deductible</t>
   </si>
   <si>
@@ -297,6 +300,9 @@
     <t xml:space="preserve">medgulf_nextcare</t>
   </si>
   <si>
+    <t xml:space="preserve">Consultations AED 50, medicines nil co-pay/Nil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plan 2</t>
   </si>
   <si>
@@ -306,7 +312,7 @@
     <t xml:space="preserve">Nextcare GN</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 10,000 with 15% co-pay / Diagnostics covered in full with NIL co-pay
+    <t xml:space="preserve">Medicines covered up to AED 10,000 with $ co-pay / Diagnostics covered in full with NIL co-pay
 Consultations covered with AED 50 deductible</t>
   </si>
   <si>
@@ -316,6 +322,9 @@
     <t xml:space="preserve">Covered up to AED 2,000</t>
   </si>
   <si>
+    <t xml:space="preserve">Consultations AED 50, medicines 15% co-pay/15%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plan 3</t>
   </si>
   <si>
@@ -325,7 +334,7 @@
     <t xml:space="preserve">Nextcare RN</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 7,500 with 15%co-pay / Diagnostics covered in full with NIL co-pay
+    <t xml:space="preserve">Medicines covered up to AED 7,500 with $ co-pay / Diagnostics covered in full with NIL co-pay
 Consultations covered with AED 50 deductible</t>
   </si>
   <si>
@@ -344,6 +353,9 @@
     <t xml:space="preserve">IP Psychiatric treatment covered up to AED 6,000/ OP Psychiatric treatment covered up to AED 1,500</t>
   </si>
   <si>
+    <t xml:space="preserve">Consultations AED 50, medicines 20% co-pay/20%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plan 4</t>
   </si>
   <si>
@@ -353,7 +365,7 @@
     <t xml:space="preserve">Nextcare RN2</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 5,000 with 15% co-pay / Diagnostics covered in full with NIL co-pay
+    <t xml:space="preserve">Medicines covered up to AED 5,000 with $ co-pay / Diagnostics covered in full with NIL co-pay
 Consultations covered with AED 50 deductible</t>
   </si>
   <si>
@@ -392,7 +404,7 @@
 Outside Network in Countries where Nextcare is present- 80% of actual costs or 80% of usual &amp; customary rates of network, whichever is less</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 1,500 with 15 co-pay / Diagnostics covered in full with NIL co-pay
+    <t xml:space="preserve">Medicines covered up to AED 1,500 with $ co-pay / Diagnostics covered in full with NIL co-pay
 Consultations covered with AED 50 deductible</t>
   </si>
   <si>
@@ -478,7 +490,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -493,6 +505,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -512,15 +528,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BG8"/>
+  <dimension ref="A1:BH8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BH5" activeCellId="0" sqref="BH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="51.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="38.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="30.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="61" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,902 +717,914 @@
       <c r="BG1" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="BH1" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BE2" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="BF2" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BG2" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
